--- a/src/outputs/output.xlsx
+++ b/src/outputs/output.xlsx
@@ -397,22 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>http://localhost:5500/index.html</v>
-      </c>
-      <c r="B1" t="str">
-        <v>unmatched</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/outputs/output.xlsx
+++ b/src/outputs/output.xlsx
@@ -397,13 +397,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>https://www.google.com</v>
+      </c>
+      <c r="B1" t="str">
+        <v>unmatched</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/outputs/output.xlsx
+++ b/src/outputs/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,9 +410,17 @@
         <v>unmatched</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>https://www.google.com</v>
+      </c>
+      <c r="B2" t="str">
+        <v>unmatched</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/outputs/output.xlsx
+++ b/src/outputs/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,9 +418,41 @@
         <v>unmatched</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>https://www.google.com</v>
+      </c>
+      <c r="B3" t="str">
+        <v>unmatched</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>https://www.google.com</v>
+      </c>
+      <c r="B4" t="str">
+        <v>unmatched</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://www.google.com</v>
+      </c>
+      <c r="B5" t="str">
+        <v>unmatched</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>https://www.google.com</v>
+      </c>
+      <c r="B6" t="str">
+        <v>unmatched</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B6"/>
   </ignoredErrors>
 </worksheet>
 </file>